--- a/cincinnati_zillow_calcs.xlsx
+++ b/cincinnati_zillow_calcs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>ctizhv@regional</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Year-over-year percent changes</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyymm"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -269,7 +272,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,6 +1115,11 @@
         <v>216000</v>
       </c>
     </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
